--- a/data/nzd0169/nzd0169.xlsx
+++ b/data/nzd0169/nzd0169.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E545"/>
+  <dimension ref="A1:E550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11584,6 +11584,111 @@
       <c r="E545" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>375.68</v>
+      </c>
+      <c r="C546" t="n">
+        <v>361.82</v>
+      </c>
+      <c r="D546" t="n">
+        <v>366.7328571428571</v>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>361.11</v>
+      </c>
+      <c r="C547" t="n">
+        <v>358.3633333333333</v>
+      </c>
+      <c r="D547" t="n">
+        <v>355.9428571428572</v>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>378.72</v>
+      </c>
+      <c r="C548" t="n">
+        <v>367.3966666666666</v>
+      </c>
+      <c r="D548" t="n">
+        <v>373.1871428571428</v>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>369.65</v>
+      </c>
+      <c r="C549" t="n">
+        <v>364.0766666666667</v>
+      </c>
+      <c r="D549" t="n">
+        <v>365.2771428571429</v>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>377.27</v>
+      </c>
+      <c r="C550" t="n">
+        <v>363.5666666666667</v>
+      </c>
+      <c r="D550" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11598,7 +11703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B637"/>
+  <dimension ref="A1:B642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17976,6 +18081,56 @@
       </c>
       <c r="B637" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -18144,28 +18299,28 @@
         <v>0.0517</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03482459974945536</v>
+        <v>0.02621127593653754</v>
       </c>
       <c r="J2" t="n">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="K2" t="n">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001115723916142564</v>
+        <v>0.0006389902805861158</v>
       </c>
       <c r="M2" t="n">
-        <v>6.083569676373979</v>
+        <v>6.076029463400272</v>
       </c>
       <c r="N2" t="n">
-        <v>59.64089054464292</v>
+        <v>59.6527264566654</v>
       </c>
       <c r="O2" t="n">
-        <v>7.722751487950582</v>
+        <v>7.723517751430717</v>
       </c>
       <c r="P2" t="n">
-        <v>376.0200139260716</v>
+        <v>376.1023781702241</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -18221,28 +18376,28 @@
         <v>0.0761</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06061885092445218</v>
+        <v>-0.06670991390285028</v>
       </c>
       <c r="J3" t="n">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="K3" t="n">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005567032509419478</v>
+        <v>0.006834571886992435</v>
       </c>
       <c r="M3" t="n">
-        <v>4.574921310240343</v>
+        <v>4.565110222958928</v>
       </c>
       <c r="N3" t="n">
-        <v>35.72077444598602</v>
+        <v>35.55514704190738</v>
       </c>
       <c r="O3" t="n">
-        <v>5.976685908259361</v>
+        <v>5.962813684990281</v>
       </c>
       <c r="P3" t="n">
-        <v>367.821624030674</v>
+        <v>367.880251214101</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -18298,28 +18453,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06229662580397818</v>
+        <v>-0.06552994993018395</v>
       </c>
       <c r="J4" t="n">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="K4" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003600852226998352</v>
+        <v>0.004039464393780778</v>
       </c>
       <c r="M4" t="n">
-        <v>5.305927873264339</v>
+        <v>5.295102469316065</v>
       </c>
       <c r="N4" t="n">
-        <v>57.22555815184347</v>
+        <v>56.99128065550496</v>
       </c>
       <c r="O4" t="n">
-        <v>7.564757639993728</v>
+        <v>7.549256960489884</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8749616015911</v>
+        <v>368.9066876188461</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -18356,7 +18511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E545"/>
+  <dimension ref="A1:E550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32479,6 +32634,141 @@
         </is>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>-36.77077958776678,174.77315764272092</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>-36.771410414119366,174.77360210657872</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>-36.771953440107275,174.774186445766</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>-36.770859101893386,174.7730277591291</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>-36.77142999041802,174.77357198598298</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>-36.772013144396226,174.7740910407695</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>-36.7707629972936,174.7731847426263</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>-36.77137883151225,174.77365070033275</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>-36.77191772658397,174.77424351437915</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>-36.77081249582603,174.77310388859738</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>-36.77139763383174,174.77362177064302</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>-36.771961495012974,174.77417357437375</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>-36.770770910513455,174.77317181668607</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>-36.77140052213926,174.77361732662317</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>-36.771953068585596,174.77418703944153</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0169/nzd0169.xlsx
+++ b/data/nzd0169/nzd0169.xlsx
@@ -18144,7 +18144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18235,35 +18235,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -18322,27 +18327,28 @@
       <c r="P2" t="n">
         <v>376.1023781702241</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.76980857416203 -36.77282977549785, 174.77801185853403 -36.76780764335105)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.769808574162</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.77282977549785</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.778011858534</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.76780764335105</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.773910216348</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.77031870942444</v>
       </c>
     </row>
@@ -18399,27 +18405,28 @@
       <c r="P3" t="n">
         <v>367.880251214101</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.77044920683613 -36.77345948638678, 174.77846744481798 -36.76824805436688)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7704492068361</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.77345948638678</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.778467444818</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.76824805436688</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.7744583258271</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.77085377037683</v>
       </c>
     </row>
@@ -18476,27 +18483,28 @@
       <c r="P4" t="n">
         <v>368.9066876188461</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.77094371638117 -36.77398264139601, 174.7790801360495 -36.76889075339823)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7709437163812</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.77398264139601</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7790801360495</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.76889075339823</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7750119262153</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.77143669739712</v>
       </c>
     </row>

--- a/data/nzd0169/nzd0169.xlsx
+++ b/data/nzd0169/nzd0169.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E550"/>
+  <dimension ref="A1:E556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11689,6 +11689,130 @@
       <c r="E550" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>374.58</v>
+      </c>
+      <c r="C551" t="n">
+        <v>365.7466666666666</v>
+      </c>
+      <c r="D551" t="n">
+        <v>366.5142857142857</v>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>367.42</v>
+      </c>
+      <c r="C552" t="n">
+        <v>365.1233333333333</v>
+      </c>
+      <c r="D552" t="n">
+        <v>366.4071428571429</v>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>382.77</v>
+      </c>
+      <c r="C553" t="n">
+        <v>368.7266666666667</v>
+      </c>
+      <c r="D553" t="n">
+        <v>374.9085714285715</v>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>370.3</v>
+      </c>
+      <c r="C554" t="n">
+        <v>364.01</v>
+      </c>
+      <c r="D554" t="n">
+        <v>364.03</v>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>371.01</v>
+      </c>
+      <c r="C555" t="n">
+        <v>362.5700000000001</v>
+      </c>
+      <c r="D555" t="n">
+        <v>360.8042857142857</v>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:56+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr"/>
+      <c r="C556" t="n">
+        <v>367.1766666666667</v>
+      </c>
+      <c r="D556" t="n">
+        <v>378.72</v>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11703,7 +11827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B642"/>
+  <dimension ref="A1:B648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18131,6 +18255,66 @@
       </c>
       <c r="B642" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>-0.71</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -18304,28 +18488,28 @@
         <v>0.0517</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02621127593653754</v>
+        <v>0.01933764492230325</v>
       </c>
       <c r="J2" t="n">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="K2" t="n">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006389902805861158</v>
+        <v>0.0003527900967438269</v>
       </c>
       <c r="M2" t="n">
-        <v>6.076029463400272</v>
+        <v>6.074623893613866</v>
       </c>
       <c r="N2" t="n">
-        <v>59.6527264566654</v>
+        <v>59.45508739778671</v>
       </c>
       <c r="O2" t="n">
-        <v>7.723517751430717</v>
+        <v>7.710712509086739</v>
       </c>
       <c r="P2" t="n">
-        <v>376.1023781702241</v>
+        <v>376.1689095338179</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18382,28 +18566,28 @@
         <v>0.0761</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06670991390285028</v>
+        <v>-0.06808163813109419</v>
       </c>
       <c r="J3" t="n">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="K3" t="n">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006834571886992435</v>
+        <v>0.007278585563004425</v>
       </c>
       <c r="M3" t="n">
-        <v>4.565110222958928</v>
+        <v>4.532466068253233</v>
       </c>
       <c r="N3" t="n">
-        <v>35.55514704190738</v>
+        <v>35.19071662810845</v>
       </c>
       <c r="O3" t="n">
-        <v>5.962813684990281</v>
+        <v>5.932176382080058</v>
       </c>
       <c r="P3" t="n">
-        <v>367.880251214101</v>
+        <v>367.8936337490043</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18460,28 +18644,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06552994993018395</v>
+        <v>-0.06251547749328777</v>
       </c>
       <c r="J4" t="n">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="K4" t="n">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004039464393780778</v>
+        <v>0.003735187361359915</v>
       </c>
       <c r="M4" t="n">
-        <v>5.295102469316065</v>
+        <v>5.291158099680636</v>
       </c>
       <c r="N4" t="n">
-        <v>56.99128065550496</v>
+        <v>56.79839838890028</v>
       </c>
       <c r="O4" t="n">
-        <v>7.549256960489884</v>
+        <v>7.536471215953809</v>
       </c>
       <c r="P4" t="n">
-        <v>368.9066876188461</v>
+        <v>368.8766476029987</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18519,7 +18703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E550"/>
+  <dimension ref="A1:E556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32777,6 +32961,164 @@
         </is>
       </c>
     </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>-36.770785590897056,174.7731478368312</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>-36.77138817603934,174.77363632262728</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>-36.77195464952892,174.77418451316262</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>-36.77082466579893,174.7730840093658</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>-36.77139170619359,174.77363089104875</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>-36.77195524238265,174.774183565808</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>-36.770740894844835,174.77322084610037</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>-36.77137129925588,174.77366228963217</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>-36.771908201392385,174.77425873519323</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>-36.770808948523914,174.77310968299105</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>-36.77139801138828,174.77362118972542</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>-36.771968395829056,174.77416254716312</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>-36.77080507377822,174.7731160122512</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>-36.77140616660904,174.77360864190362</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>-36.77198624467071,174.77413402545673</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:56+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr"/>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>-36.771380077449294,174.77364878330556</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>-36.77188711158397,174.7742924357042</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0169/nzd0169.xlsx
+++ b/data/nzd0169/nzd0169.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E556"/>
+  <dimension ref="A1:E561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11811,6 +11811,111 @@
         <v>378.72</v>
       </c>
       <c r="E556" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>381.33</v>
+      </c>
+      <c r="C557" t="n">
+        <v>367.85</v>
+      </c>
+      <c r="D557" t="n">
+        <v>365.0957142857143</v>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>370.75</v>
+      </c>
+      <c r="C558" t="n">
+        <v>363.9833333333333</v>
+      </c>
+      <c r="D558" t="n">
+        <v>365.6742857142857</v>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>369.09</v>
+      </c>
+      <c r="C559" t="n">
+        <v>365.8366666666667</v>
+      </c>
+      <c r="D559" t="n">
+        <v>367.7528571428572</v>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>368.87</v>
+      </c>
+      <c r="C560" t="n">
+        <v>364.0733333333333</v>
+      </c>
+      <c r="D560" t="n">
+        <v>370.6085714285715</v>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>377.49</v>
+      </c>
+      <c r="C561" t="n">
+        <v>364.28</v>
+      </c>
+      <c r="D561" t="n">
+        <v>369.48</v>
+      </c>
+      <c r="E561" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11827,7 +11932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B648"/>
+  <dimension ref="A1:B654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18315,6 +18420,66 @@
       </c>
       <c r="B648" t="n">
         <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
@@ -18488,28 +18653,28 @@
         <v>0.0517</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01933764492230325</v>
+        <v>0.0133288898696462</v>
       </c>
       <c r="J2" t="n">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="K2" t="n">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003527900967438269</v>
+        <v>0.0001701230164292689</v>
       </c>
       <c r="M2" t="n">
-        <v>6.074623893613866</v>
+        <v>6.067024047039128</v>
       </c>
       <c r="N2" t="n">
-        <v>59.45508739778671</v>
+        <v>59.20626406833022</v>
       </c>
       <c r="O2" t="n">
-        <v>7.710712509086739</v>
+        <v>7.694560680658138</v>
       </c>
       <c r="P2" t="n">
-        <v>376.1689095338179</v>
+        <v>376.2275252187391</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18566,28 +18731,28 @@
         <v>0.0761</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06808163813109419</v>
+        <v>-0.06979578315724635</v>
       </c>
       <c r="J3" t="n">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="K3" t="n">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007278585563004425</v>
+        <v>0.007791920682543418</v>
       </c>
       <c r="M3" t="n">
-        <v>4.532466068253233</v>
+        <v>4.503826798314238</v>
       </c>
       <c r="N3" t="n">
-        <v>35.19071662810845</v>
+        <v>34.88052407833083</v>
       </c>
       <c r="O3" t="n">
-        <v>5.932176382080058</v>
+        <v>5.905973592755967</v>
       </c>
       <c r="P3" t="n">
-        <v>367.8936337490043</v>
+        <v>367.9104671967924</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18644,28 +18809,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06251547749328777</v>
+        <v>-0.06167197205743915</v>
       </c>
       <c r="J4" t="n">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="K4" t="n">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003735187361359915</v>
+        <v>0.00370436468679114</v>
       </c>
       <c r="M4" t="n">
-        <v>5.291158099680636</v>
+        <v>5.258561564369934</v>
       </c>
       <c r="N4" t="n">
-        <v>56.79839838890028</v>
+        <v>56.29364505097559</v>
       </c>
       <c r="O4" t="n">
-        <v>7.536471215953809</v>
+        <v>7.502909105871908</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8766476029987</v>
+        <v>368.8681722023799</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18703,7 +18868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E556"/>
+  <dimension ref="A1:E561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33119,6 +33284,141 @@
         </is>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>-36.77074875349449,174.773208009312</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>-36.77137626412674,174.77365465057042</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>-36.771962498911826,174.7741719701863</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>-36.77080649269921,174.77311369449401</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>-36.771398162410904,174.77362095735836</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>-36.77195929750203,174.774177085902</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>-36.77081555196302,174.77309889650394</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>-36.771387666337915,174.77363710686586</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>-36.77194779613921,174.7741954645809</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>-36.77081675258821,174.77309693532428</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>-36.77139765270956,174.77362174159714</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>-36.77193199460604,174.77422071472935</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>-36.770769709887084,174.7731737778634</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>-36.77139648228426,174.77362354244173</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>-36.77193823933463,174.77421073593257</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0169/nzd0169.xlsx
+++ b/data/nzd0169/nzd0169.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E561"/>
+  <dimension ref="A1:E563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11916,6 +11916,48 @@
         <v>369.48</v>
       </c>
       <c r="E561" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>382.95</v>
+      </c>
+      <c r="C562" t="n">
+        <v>373.7933333333334</v>
+      </c>
+      <c r="D562" t="n">
+        <v>376.4914285714286</v>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>363.1</v>
+      </c>
+      <c r="C563" t="n">
+        <v>363.4633333333333</v>
+      </c>
+      <c r="D563" t="n">
+        <v>368.1157142857143</v>
+      </c>
+      <c r="E563" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11932,7 +11974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B654"/>
+  <dimension ref="A1:B656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18480,6 +18522,26 @@
       </c>
       <c r="B654" t="n">
         <v>1.05</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>-0.89</v>
       </c>
     </row>
   </sheetData>
@@ -18653,28 +18715,28 @@
         <v>0.0517</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0133288898696462</v>
+        <v>0.01064938344958691</v>
       </c>
       <c r="J2" t="n">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K2" t="n">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001701230164292689</v>
+        <v>0.0001086656028218558</v>
       </c>
       <c r="M2" t="n">
-        <v>6.067024047039128</v>
+        <v>6.082477371659097</v>
       </c>
       <c r="N2" t="n">
-        <v>59.20626406833022</v>
+        <v>59.41441054132491</v>
       </c>
       <c r="O2" t="n">
-        <v>7.694560680658138</v>
+        <v>7.708074373105445</v>
       </c>
       <c r="P2" t="n">
-        <v>376.2275252187391</v>
+        <v>376.2537454385427</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18731,28 +18793,28 @@
         <v>0.0761</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06979578315724635</v>
+        <v>-0.06797662884038998</v>
       </c>
       <c r="J3" t="n">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K3" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007791920682543418</v>
+        <v>0.007424323356310047</v>
       </c>
       <c r="M3" t="n">
-        <v>4.503826798314238</v>
+        <v>4.506921543766953</v>
       </c>
       <c r="N3" t="n">
-        <v>34.88052407833083</v>
+        <v>34.87302082376878</v>
       </c>
       <c r="O3" t="n">
-        <v>5.905973592755967</v>
+        <v>5.905338332709547</v>
       </c>
       <c r="P3" t="n">
-        <v>367.9104671967924</v>
+        <v>367.8926053734853</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18809,28 +18871,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06167197205743915</v>
+        <v>-0.05799943335920067</v>
       </c>
       <c r="J4" t="n">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K4" t="n">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00370436468679114</v>
+        <v>0.003293418921615165</v>
       </c>
       <c r="M4" t="n">
-        <v>5.258561564369934</v>
+        <v>5.256006009304139</v>
       </c>
       <c r="N4" t="n">
-        <v>56.29364505097559</v>
+        <v>56.24035050221208</v>
       </c>
       <c r="O4" t="n">
-        <v>7.502909105871908</v>
+        <v>7.499356672556125</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8681722023799</v>
+        <v>368.8313657152294</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18868,7 +18930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E561"/>
+  <dimension ref="A1:E563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21205,7 +21267,7 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-36.771337828840444,174.77371378792</t>
+          <t>-36.77133782884044,174.77371378792</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -33414,6 +33476,60 @@
         </is>
       </c>
       <c r="E561" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>-36.77073991251355,174.77322245069874</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>-36.771342604935995,174.77370643932332</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>-36.77189944295732,174.77427273076003</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>-36.77084824170152,174.77304549890812</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>-36.77140110735188,174.77361642620082</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>-36.77194578834088,174.77419867295453</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0169/nzd0169.xlsx
+++ b/data/nzd0169/nzd0169.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E563"/>
+  <dimension ref="A1:E564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11960,6 +11960,27 @@
       <c r="E563" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>381.11</v>
+      </c>
+      <c r="C564" t="n">
+        <v>369.0333333333334</v>
+      </c>
+      <c r="D564" t="n">
+        <v>372.7242857142857</v>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11974,7 +11995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B656"/>
+  <dimension ref="A1:B657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18542,6 +18563,16 @@
       </c>
       <c r="B656" t="n">
         <v>-0.89</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -18715,28 +18746,28 @@
         <v>0.0517</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01064938344958691</v>
+        <v>0.01237027900943673</v>
       </c>
       <c r="J2" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K2" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001086656028218558</v>
+        <v>0.000147104727929892</v>
       </c>
       <c r="M2" t="n">
-        <v>6.082477371659097</v>
+        <v>6.079454306062655</v>
       </c>
       <c r="N2" t="n">
-        <v>59.41441054132491</v>
+        <v>59.33699896543927</v>
       </c>
       <c r="O2" t="n">
-        <v>7.708074373105445</v>
+        <v>7.703051276308582</v>
       </c>
       <c r="P2" t="n">
-        <v>376.2537454385427</v>
+        <v>376.236903785953</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18793,28 +18824,28 @@
         <v>0.0761</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06797662884038998</v>
+        <v>-0.06693096011386936</v>
       </c>
       <c r="J3" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K3" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007424323356310047</v>
+        <v>0.007223643930046042</v>
       </c>
       <c r="M3" t="n">
-        <v>4.506921543766953</v>
+        <v>4.50413307081631</v>
       </c>
       <c r="N3" t="n">
-        <v>34.87302082376878</v>
+        <v>34.8220776746822</v>
       </c>
       <c r="O3" t="n">
-        <v>5.905338332709547</v>
+        <v>5.901023442987004</v>
       </c>
       <c r="P3" t="n">
-        <v>367.8926053734853</v>
+        <v>367.8823093488188</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18871,28 +18902,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05799943335920067</v>
+        <v>-0.05603332090815493</v>
       </c>
       <c r="J4" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K4" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003293418921615165</v>
+        <v>0.003083330335602485</v>
       </c>
       <c r="M4" t="n">
-        <v>5.256006009304139</v>
+        <v>5.255347830775998</v>
       </c>
       <c r="N4" t="n">
-        <v>56.24035050221208</v>
+        <v>56.18763355363124</v>
       </c>
       <c r="O4" t="n">
-        <v>7.499356672556125</v>
+        <v>7.495841083803153</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8313657152294</v>
+        <v>368.8116196461792</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18930,7 +18961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E563"/>
+  <dimension ref="A1:E564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33535,6 +33566,33 @@
         </is>
       </c>
     </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>-36.770749954121406,174.77320604813576</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>-36.771369562494854,174.77366496185127</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>-36.771920287713996,174.77423942181105</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0169/nzd0169.xlsx
+++ b/data/nzd0169/nzd0169.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E564"/>
+  <dimension ref="A1:E567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11981,6 +11981,69 @@
       <c r="E564" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>359.32</v>
+      </c>
+      <c r="C565" t="n">
+        <v>367.1133333333333</v>
+      </c>
+      <c r="D565" t="n">
+        <v>362.9928571428572</v>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>378.69</v>
+      </c>
+      <c r="C566" t="n">
+        <v>373.9466666666667</v>
+      </c>
+      <c r="D566" t="n">
+        <v>376.1842857142857</v>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>369.46</v>
+      </c>
+      <c r="C567" t="n">
+        <v>362.8766666666667</v>
+      </c>
+      <c r="D567" t="n">
+        <v>365.9514285714286</v>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11995,7 +12058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B657"/>
+  <dimension ref="A1:B660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18573,6 +18636,36 @@
       </c>
       <c r="B657" t="n">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -18746,28 +18839,28 @@
         <v>0.0517</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01237027900943673</v>
+        <v>0.004148570446879187</v>
       </c>
       <c r="J2" t="n">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="K2" t="n">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000147104727929892</v>
+        <v>1.655202200079309e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>6.079454306062655</v>
+        <v>6.096233470855586</v>
       </c>
       <c r="N2" t="n">
-        <v>59.33699896543927</v>
+        <v>59.67846793710131</v>
       </c>
       <c r="O2" t="n">
-        <v>7.703051276308582</v>
+        <v>7.725184006682385</v>
       </c>
       <c r="P2" t="n">
-        <v>376.236903785953</v>
+        <v>376.3175339202027</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18824,28 +18917,28 @@
         <v>0.0761</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06693096011386936</v>
+        <v>-0.06497201563888395</v>
       </c>
       <c r="J3" t="n">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="K3" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007223643930046042</v>
+        <v>0.006861306420430258</v>
       </c>
       <c r="M3" t="n">
-        <v>4.50413307081631</v>
+        <v>4.501811687351563</v>
       </c>
       <c r="N3" t="n">
-        <v>34.8220776746822</v>
+        <v>34.76059196842814</v>
       </c>
       <c r="O3" t="n">
-        <v>5.901023442987004</v>
+        <v>5.89581139186356</v>
       </c>
       <c r="P3" t="n">
-        <v>367.8823093488188</v>
+        <v>367.8629602116688</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18902,28 +18995,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05603332090815493</v>
+        <v>-0.0549236681449051</v>
       </c>
       <c r="J4" t="n">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="K4" t="n">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003083330335602485</v>
+        <v>0.002986825528643822</v>
       </c>
       <c r="M4" t="n">
-        <v>5.255347830775998</v>
+        <v>5.252647562921745</v>
       </c>
       <c r="N4" t="n">
-        <v>56.18763355363124</v>
+        <v>56.05417130961954</v>
       </c>
       <c r="O4" t="n">
-        <v>7.495841083803153</v>
+        <v>7.486933371522651</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8116196461792</v>
+        <v>368.8003774975972</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18961,7 +19054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E564"/>
+  <dimension ref="A1:E567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33593,6 +33686,87 @@
         </is>
       </c>
     </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>-36.770868870606506,174.7730118022381</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>-36.771380436128126,174.7736482314341</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>-36.771974134651316,174.7741533767665</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>-36.77076316101541,174.7731844751931</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>-36.77134173655501,174.77370777543186</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>-36.77190114247327,174.77427001501403</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>-36.770813532729676,174.77310219485145</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>-36.77140442984919,174.77361131412516</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>-36.77195776398716,174.77417953639286</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0169/nzd0169.xlsx
+++ b/data/nzd0169/nzd0169.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E567"/>
+  <dimension ref="A1:E571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12042,6 +12042,90 @@
         <v>365.9514285714286</v>
       </c>
       <c r="E567" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>376.7</v>
+      </c>
+      <c r="C568" t="n">
+        <v>366.3433333333334</v>
+      </c>
+      <c r="D568" t="n">
+        <v>364.4571428571429</v>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>372.96</v>
+      </c>
+      <c r="C569" t="n">
+        <v>370.36</v>
+      </c>
+      <c r="D569" t="n">
+        <v>369.5885714285714</v>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>372.57</v>
+      </c>
+      <c r="C570" t="n">
+        <v>366.25</v>
+      </c>
+      <c r="D570" t="n">
+        <v>367.9957142857143</v>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>381.78</v>
+      </c>
+      <c r="C571" t="n">
+        <v>371.85</v>
+      </c>
+      <c r="D571" t="n">
+        <v>363.5542857142857</v>
+      </c>
+      <c r="E571" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12058,7 +12142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B660"/>
+  <dimension ref="A1:B664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18666,6 +18750,46 @@
       </c>
       <c r="B660" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
@@ -18839,28 +18963,28 @@
         <v>0.0517</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004148570446879187</v>
+        <v>0.003533468041715811</v>
       </c>
       <c r="J2" t="n">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="K2" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="L2" t="n">
-        <v>1.655202200079309e-05</v>
+        <v>1.217645857198857e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>6.096233470855586</v>
+        <v>6.073666886905619</v>
       </c>
       <c r="N2" t="n">
-        <v>59.67846793710131</v>
+        <v>59.31587070955363</v>
       </c>
       <c r="O2" t="n">
-        <v>7.725184006682385</v>
+        <v>7.701679732990306</v>
       </c>
       <c r="P2" t="n">
-        <v>376.3175339202027</v>
+        <v>376.3235859871999</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18917,28 +19041,28 @@
         <v>0.0761</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06497201563888395</v>
+        <v>-0.06142157780767579</v>
       </c>
       <c r="J3" t="n">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="K3" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006861306420430258</v>
+        <v>0.006213123726614311</v>
       </c>
       <c r="M3" t="n">
-        <v>4.501811687351563</v>
+        <v>4.48731797978117</v>
       </c>
       <c r="N3" t="n">
-        <v>34.76059196842814</v>
+        <v>34.59031787126698</v>
       </c>
       <c r="O3" t="n">
-        <v>5.89581139186356</v>
+        <v>5.881353404724713</v>
       </c>
       <c r="P3" t="n">
-        <v>367.8629602116688</v>
+        <v>367.8277475559021</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18995,28 +19119,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0549236681449051</v>
+        <v>-0.05631197788803719</v>
       </c>
       <c r="J4" t="n">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="K4" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002986825528643822</v>
+        <v>0.003183846432468385</v>
       </c>
       <c r="M4" t="n">
-        <v>5.252647562921745</v>
+        <v>5.231491521155814</v>
       </c>
       <c r="N4" t="n">
-        <v>56.05417130961954</v>
+        <v>55.68172715549814</v>
       </c>
       <c r="O4" t="n">
-        <v>7.486933371522651</v>
+        <v>7.462018973139786</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8003774975972</v>
+        <v>368.8144235293236</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19054,7 +19178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E567"/>
+  <dimension ref="A1:E571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33767,6 +33891,114 @@
         </is>
       </c>
     </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>-36.770774021227105,174.77316673545366</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>-36.77138479690751,174.77364152183836</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>-36.77196603231942,174.77416632395142</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>-36.770794431869355,174.77313339542715</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>-36.77136204911499,174.77367652210202</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>-36.77193763857596,174.77421169591815</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>-36.77079656025132,174.77312991879236</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>-36.77138532548681,174.77364070855398</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>-36.77194645233719,174.7741976119176</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>-36.77074629766661,174.77321202080867</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>-36.771353610719736,174.77368950559702</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>-36.771971028098854,174.77415834090698</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0169/nzd0169.xlsx
+++ b/data/nzd0169/nzd0169.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E571"/>
+  <dimension ref="A1:E573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12128,6 +12128,48 @@
       <c r="E571" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>383.46</v>
+      </c>
+      <c r="C572" t="n">
+        <v>368.42</v>
+      </c>
+      <c r="D572" t="n">
+        <v>368.8171428571428</v>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:11:56+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>379.93</v>
+      </c>
+      <c r="C573" t="n">
+        <v>367.3533333333334</v>
+      </c>
+      <c r="D573" t="n">
+        <v>369.5628571428572</v>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -12142,7 +12184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B664"/>
+  <dimension ref="A1:B666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18790,6 +18832,26 @@
       </c>
       <c r="B664" t="n">
         <v>0.54</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>
@@ -18963,28 +19025,28 @@
         <v>0.0517</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003533468041715811</v>
+        <v>0.00736671390732989</v>
       </c>
       <c r="J2" t="n">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K2" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L2" t="n">
-        <v>1.217645857198857e-05</v>
+        <v>5.323068247242713e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>6.073666886905619</v>
+        <v>6.069887325169165</v>
       </c>
       <c r="N2" t="n">
-        <v>59.31587070955363</v>
+        <v>59.20283787036745</v>
       </c>
       <c r="O2" t="n">
-        <v>7.701679732990306</v>
+        <v>7.694338039777525</v>
       </c>
       <c r="P2" t="n">
-        <v>376.3235859871999</v>
+        <v>376.2856705707134</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19041,28 +19103,28 @@
         <v>0.0761</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06142157780767579</v>
+        <v>-0.06026189422206912</v>
       </c>
       <c r="J3" t="n">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K3" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006213123726614311</v>
+        <v>0.006025111819551898</v>
       </c>
       <c r="M3" t="n">
-        <v>4.48731797978117</v>
+        <v>4.476737409752598</v>
       </c>
       <c r="N3" t="n">
-        <v>34.59031787126698</v>
+        <v>34.47110255808724</v>
       </c>
       <c r="O3" t="n">
-        <v>5.881353404724713</v>
+        <v>5.871209633294253</v>
       </c>
       <c r="P3" t="n">
-        <v>367.8277475559021</v>
+        <v>367.8162079020328</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19119,28 +19181,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05631197788803719</v>
+        <v>-0.05500899950000054</v>
       </c>
       <c r="J4" t="n">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K4" t="n">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003183846432468385</v>
+        <v>0.003060719225973618</v>
       </c>
       <c r="M4" t="n">
-        <v>5.231491521155814</v>
+        <v>5.218022900459955</v>
       </c>
       <c r="N4" t="n">
-        <v>55.68172715549814</v>
+        <v>55.48403343190274</v>
       </c>
       <c r="O4" t="n">
-        <v>7.462018973139786</v>
+        <v>7.448760529907156</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8144235293236</v>
+        <v>368.8011926175549</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19178,7 +19240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E571"/>
+  <dimension ref="A1:E573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33999,6 +34061,60 @@
         </is>
       </c>
     </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>-36.770737129241404,174.77322699706053</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>-36.77137303601684,174.77365961741296</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>-36.771941907124194,174.7742048749676</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:11:56+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>-36.770756393847044,174.77319552909853</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>-36.77137907692409,174.7736503227365</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>-36.77193778086091,174.77421146855315</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0169/nzd0169.xlsx
+++ b/data/nzd0169/nzd0169.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E573"/>
+  <dimension ref="A1:E574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12168,6 +12168,27 @@
         <v>369.5628571428572</v>
       </c>
       <c r="E573" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>362.61</v>
+      </c>
+      <c r="C574" t="n">
+        <v>361.88</v>
+      </c>
+      <c r="D574" t="n">
+        <v>360.3057142857143</v>
+      </c>
+      <c r="E574" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -12184,7 +12205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B666"/>
+  <dimension ref="A1:B667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18852,6 +18873,16 @@
       </c>
       <c r="B666" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>-0.75</v>
       </c>
     </row>
   </sheetData>
@@ -19240,7 +19271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E573"/>
+  <dimension ref="A1:E574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34115,6 +34146,33 @@
         </is>
       </c>
     </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>-36.77085091581935,174.77304113082226</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>-36.771410074318545,174.77360262940473</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>-36.77198900341492,174.77412961709615</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0169/nzd0169.xlsx
+++ b/data/nzd0169/nzd0169.xlsx
@@ -19056,28 +19056,28 @@
         <v>0.0517</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00736671390732989</v>
+        <v>0.002336546964425661</v>
       </c>
       <c r="J2" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K2" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L2" t="n">
-        <v>5.323068247242713e-05</v>
+        <v>5.342227669902222e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>6.069887325169165</v>
+        <v>6.085941050837511</v>
       </c>
       <c r="N2" t="n">
-        <v>59.20283787036745</v>
+        <v>59.46264843672936</v>
       </c>
       <c r="O2" t="n">
-        <v>7.694338039777525</v>
+        <v>7.711202787939723</v>
       </c>
       <c r="P2" t="n">
-        <v>376.2856705707134</v>
+        <v>376.3355620112494</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19134,28 +19134,28 @@
         <v>0.0761</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06026189422206912</v>
+        <v>-0.06178838576924666</v>
       </c>
       <c r="J3" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K3" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006025111819551898</v>
+        <v>0.006349404627294719</v>
       </c>
       <c r="M3" t="n">
-        <v>4.476737409752598</v>
+        <v>4.47635186028146</v>
       </c>
       <c r="N3" t="n">
-        <v>34.47110255808724</v>
+        <v>34.44187095621765</v>
       </c>
       <c r="O3" t="n">
-        <v>5.871209633294253</v>
+        <v>5.868719703326923</v>
       </c>
       <c r="P3" t="n">
-        <v>367.8162079020328</v>
+        <v>367.831438670403</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19212,28 +19212,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05500899950000054</v>
+        <v>-0.05750405080863546</v>
       </c>
       <c r="J4" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K4" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003060719225973618</v>
+        <v>0.003350547467516507</v>
       </c>
       <c r="M4" t="n">
-        <v>5.218022900459955</v>
+        <v>5.222623896727423</v>
       </c>
       <c r="N4" t="n">
-        <v>55.48403343190274</v>
+        <v>55.47288320300437</v>
       </c>
       <c r="O4" t="n">
-        <v>7.448760529907156</v>
+        <v>7.448012030267162</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8011926175549</v>
+        <v>368.826581483467</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">

--- a/data/nzd0169/nzd0169.xlsx
+++ b/data/nzd0169/nzd0169.xlsx
@@ -19047,13 +19047,13 @@
         <v>0.9048421020590288</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0491</v>
+        <v>0.057</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0517</v>
+        <v>0.0703</v>
       </c>
       <c r="I2" t="n">
         <v>0.002336546964425779</v>
@@ -19125,13 +19125,13 @@
         <v>0.9525009892942401</v>
       </c>
       <c r="F3" t="n">
-        <v>0.075</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0762</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0761</v>
+        <v>0.0965</v>
       </c>
       <c r="I3" t="n">
         <v>-0.06178724255416496</v>
@@ -19203,13 +19203,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0689</v>
+        <v>0.076</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07539999999999999</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="I4" t="n">
         <v>-0.05751284350199475</v>
